--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Blocksize_test(Finished)/Blocksize_test(Last)/100nodes/100.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Blocksize_test(Finished)/Blocksize_test(Last)/100nodes/100.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Blocksize_test(Last)\100nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Blocksize_test(Finished)\Blocksize_test(Last)\100nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9081D-7352-4BD1-9A76-31DE8C64AA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77514C67-8A79-4A67-A3C0-B538AE458E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1550,9 +1550,9 @@
       <selection activeCell="T52" sqref="T52:T61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>2326.4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>6365</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>6406</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>6354</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>6391.7</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>8454</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>8533</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>8439</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>8415</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>8422</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>8567</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>8440</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>8481</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>8503</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>8428</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>8468.2000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>10733</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>10454</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>10484</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>10446</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>10477</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>2326.4</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>6391.7</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>8468.2000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>10514.7</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>12566</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>14628.9</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>16661.5</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>18676.900000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>20792.2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>12544</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>12560</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>12593</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>12572</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>12598</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>12566</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>14607</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>14562</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>14608</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>14568</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>14648</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>14559</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>14553</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>14518</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>14605</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>15061</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>14628.9</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>16591</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>16665</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>16680</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>16612</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>16908</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>16652</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>16643</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>16598</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>16620</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>16646</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>16661.5</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>18691</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>18667</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>18644</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>18724</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>18638</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>18639</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>18680</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>18646</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>18732</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>18708</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>18676.900000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>20727</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>20703</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>20735</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>20792</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>20749</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>20819</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>20715</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>20668</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>20842</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>21172</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R111" s="2">
         <f>AVERAGE(R101:R110)</f>
         <v>20792.2</v>
@@ -7188,16 +7188,16 @@
       <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -7228,26 +7228,26 @@
         <v>2326.4</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*50/1000000</f>
-        <v>0.11632000000000001</v>
+        <f>2*B2*50/1000000</f>
+        <v>0.23264000000000001</v>
       </c>
       <c r="D2" s="1">
         <v>1023</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>8794.7042640990367</v>
+        <v>4397.3521320495183</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.11632000000000001</v>
+        <v>0.23264000000000001</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>8794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -7255,26 +7255,26 @@
         <v>4391</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.21955</v>
+        <f t="shared" ref="C3:C11" si="0">2*B3*50/1000000</f>
+        <v>0.43909999999999999</v>
       </c>
       <c r="D3" s="1">
         <v>2047</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3/C3</f>
-        <v>9323.6164882714638</v>
+        <v>4661.8082441357319</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">ROUND(C3,6)</f>
-        <v>0.21955</v>
+        <v>0.43909999999999999</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="3">FLOOR(E3,1)</f>
-        <v>9323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -7283,25 +7283,25 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.31958500000000001</v>
+        <v>0.63917000000000002</v>
       </c>
       <c r="D4" s="1">
         <v>3071</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>9609.3371090633154</v>
+        <v>4804.6685545316577</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.31958500000000001</v>
+        <v>0.63917000000000002</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>9609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -7310,25 +7310,25 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.42341000000000006</v>
+        <v>0.84682000000000013</v>
       </c>
       <c r="D5" s="1">
         <v>4095</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>9671.4768191587336</v>
+        <v>4835.7384095793668</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.42341000000000001</v>
+        <v>0.84682000000000002</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>9671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -7337,25 +7337,25 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.52573499999999995</v>
+        <v>1.0514699999999999</v>
       </c>
       <c r="D6" s="1">
         <v>5119</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>9736.844608024956</v>
+        <v>4868.422304012478</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.52573499999999995</v>
+        <v>1.0514699999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>9736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -7364,25 +7364,25 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.62829999999999997</v>
+        <v>1.2565999999999999</v>
       </c>
       <c r="D7" s="1">
         <v>6143</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>9777.1765080375626</v>
+        <v>4888.5882540187813</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.62829999999999997</v>
+        <v>1.2565999999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>9777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -7391,25 +7391,25 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.73144500000000001</v>
+        <v>1.46289</v>
       </c>
       <c r="D8" s="1">
         <v>7167</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>9798.4127309640498</v>
+        <v>4899.2063654820249</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.73144500000000001</v>
+        <v>1.46289</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>9798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -7418,25 +7418,25 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.83307500000000001</v>
+        <v>1.66615</v>
       </c>
       <c r="D9" s="1">
         <v>8191</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>9832.2479968790321</v>
+        <v>4916.1239984395161</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.83307500000000001</v>
+        <v>1.66615</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>9832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -7445,25 +7445,25 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.93384500000000015</v>
+        <v>1.8676900000000003</v>
       </c>
       <c r="D10" s="1">
         <v>9215</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>9867.8046142561125</v>
+        <v>4933.9023071280562</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.93384500000000004</v>
+        <v>1.8676900000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
@@ -7472,70 +7472,70 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0396099999999999</v>
+        <v>2.0792199999999998</v>
       </c>
       <c r="D11" s="1">
         <v>10239</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>9848.8856398072367</v>
+        <v>4924.4428199036183</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>1.0396099999999999</v>
+        <v>2.0792199999999998</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>9848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>0.1167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>0.22251499999999999</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>0.32068999999999998</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>0.42416500000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>0.52818500000000002</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>0.62753499999999995</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>0.73242499999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>0.83374000000000004</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>0.93467</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>1.0373250000000001</v>
       </c>
@@ -7554,12 +7554,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
